--- a/RT2020/Resources/Reports/Inventory/Journal/SA1330-MonthlyPivot.xlsx
+++ b/RT2020/Resources/Reports/Inventory/Journal/SA1330-MonthlyPivot.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24430"/>
   <workbookPr codeName="ЭтаКнига"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\RT2020\RT2020\Resources\Reports\Inventory\Journal\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C176E7AA-06DD-408C-9871-E81DFCE3097A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BA77094-D606-46BC-947B-DD0B88264C2D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2085" yWindow="2250" windowWidth="27495" windowHeight="15810" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1815" yWindow="1815" windowWidth="21600" windowHeight="10500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="3" r:id="rId1"/>
@@ -20,11 +20,20 @@
     <definedName name="item">Sheet1!$A$7:$AA$8</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="68">
   <si>
     <t>&lt;&lt;page&gt;&gt;</t>
   </si>
@@ -227,7 +236,7 @@
     <t>{{lblCDAmount}}</t>
   </si>
   <si>
-    <t>&lt;&lt;pivot Name="RT2020 Pivot" dst="Pivot!B6" columngrand mergelabels CaptionNoFormatting&gt;&gt;</t>
+    <t>&lt;&lt;pivot Name="SA1330-Monthly Pivot" dst="Pivot!B6" columngrand mergelabels CaptionNoFormatting&gt;&gt;</t>
   </si>
 </sst>
 </file>
@@ -374,7 +383,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="4" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -423,11 +432,33 @@
     <xf numFmtId="165" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="164" fontId="5" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="166" fontId="5" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="166" fontId="5" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -443,26 +474,6 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="164" fontId="5" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="166" fontId="5" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="166" fontId="5" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="167" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -843,9 +854,9 @@
   </sheetPr>
   <dimension ref="A1:AA15"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="Q1" sqref="Q1:S1048576"/>
+      <selection pane="bottomLeft" activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
@@ -954,30 +965,32 @@
     </row>
     <row r="4" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="8"/>
-      <c r="B4" s="21" t="s">
+      <c r="B4" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="C4" s="22"/>
-      <c r="D4" s="22"/>
-      <c r="E4" s="29" t="s">
+      <c r="C4" s="21"/>
+      <c r="D4" s="21"/>
+      <c r="E4" s="22" t="s">
         <v>44</v>
       </c>
-      <c r="F4" s="29"/>
-      <c r="G4" s="29"/>
-      <c r="H4" s="29"/>
-      <c r="I4" s="29"/>
-      <c r="J4" s="29"/>
-      <c r="K4" s="29"/>
-      <c r="L4" s="29"/>
-      <c r="M4" s="29"/>
-      <c r="N4" s="29"/>
-      <c r="O4" s="29"/>
-      <c r="P4" s="30" t="s">
+      <c r="F4" s="24" t="s">
         <v>41</v>
       </c>
-      <c r="Q4" s="31" t="s">
+      <c r="G4" s="22"/>
+      <c r="H4" s="22"/>
+      <c r="I4" s="22"/>
+      <c r="J4" s="22"/>
+      <c r="K4" s="22"/>
+      <c r="L4" s="22" t="s">
+        <v>43</v>
+      </c>
+      <c r="M4" s="24" t="s">
         <v>42</v>
       </c>
+      <c r="N4" s="22"/>
+      <c r="O4" s="22"/>
+      <c r="P4" s="23"/>
+      <c r="Q4" s="24"/>
       <c r="R4" s="9"/>
       <c r="S4" s="9"/>
       <c r="T4" s="9"/>
@@ -985,10 +998,10 @@
       <c r="V4" s="9"/>
       <c r="W4" s="9"/>
       <c r="X4" s="9"/>
-      <c r="Y4" s="29" t="s">
+      <c r="Y4" s="22" t="s">
         <v>45</v>
       </c>
-      <c r="Z4" s="31" t="s">
+      <c r="Z4" s="24" t="s">
         <v>46</v>
       </c>
       <c r="AA4" s="9"/>
@@ -1109,19 +1122,19 @@
       <c r="K7" s="14" t="s">
         <v>58</v>
       </c>
-      <c r="L7" s="33" t="s">
+      <c r="L7" s="26" t="s">
         <v>62</v>
       </c>
-      <c r="M7" s="34" t="s">
+      <c r="M7" s="27" t="s">
         <v>63</v>
       </c>
-      <c r="N7" s="33" t="s">
+      <c r="N7" s="26" t="s">
         <v>64</v>
       </c>
-      <c r="O7" s="35" t="s">
+      <c r="O7" s="28" t="s">
         <v>65</v>
       </c>
-      <c r="P7" s="36" t="s">
+      <c r="P7" s="29" t="s">
         <v>4</v>
       </c>
       <c r="Q7" s="12" t="s">
@@ -1159,7 +1172,7 @@
       </c>
     </row>
     <row r="8" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A8" s="32" t="s">
+      <c r="A8" s="25" t="s">
         <v>67</v>
       </c>
       <c r="B8" s="1" t="s">
@@ -1287,8 +1300,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="B1:N4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="N1" sqref="N1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="S4" sqref="S4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1300,36 +1313,65 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:14" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="B1" s="20" t="s">
+      <c r="B1" s="32" t="s">
         <v>21</v>
       </c>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
+      <c r="E1" s="30"/>
+      <c r="F1" s="30"/>
+      <c r="G1" s="30"/>
+      <c r="H1" s="30"/>
+      <c r="I1" s="30"/>
+      <c r="J1" s="30"/>
+      <c r="K1" s="30"/>
+      <c r="L1" s="30"/>
+      <c r="M1" s="30"/>
+      <c r="N1" s="30"/>
     </row>
     <row r="2" spans="2:14" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="B2" s="20" t="s">
+      <c r="B2" s="32" t="s">
         <v>5</v>
       </c>
+      <c r="C2" s="30"/>
+      <c r="D2" s="30"/>
+      <c r="E2" s="30"/>
+      <c r="F2" s="30"/>
+      <c r="G2" s="30"/>
+      <c r="H2" s="30"/>
+      <c r="I2" s="30"/>
+      <c r="J2" s="30"/>
+      <c r="K2" s="30"/>
+      <c r="L2" s="30"/>
+      <c r="M2" s="30"/>
+      <c r="N2" s="30"/>
     </row>
     <row r="4" spans="2:14" ht="15" x14ac:dyDescent="0.2">
-      <c r="B4" s="23" t="s">
+      <c r="B4" s="33" t="s">
         <v>40</v>
       </c>
-      <c r="C4" s="24"/>
-      <c r="D4" s="25" t="s">
+      <c r="C4" s="34"/>
+      <c r="D4" s="35" t="s">
         <v>44</v>
       </c>
-      <c r="E4" s="26" t="s">
+      <c r="E4" s="36" t="s">
         <v>41</v>
       </c>
-      <c r="H4" s="27" t="s">
+      <c r="F4" s="30"/>
+      <c r="G4" s="30"/>
+      <c r="H4" s="37" t="s">
         <v>43</v>
       </c>
-      <c r="I4" s="10" t="s">
+      <c r="I4" s="31" t="s">
         <v>42</v>
       </c>
-      <c r="M4" s="27" t="s">
+      <c r="J4" s="30"/>
+      <c r="K4" s="30"/>
+      <c r="L4" s="30"/>
+      <c r="M4" s="37" t="s">
         <v>45</v>
       </c>
-      <c r="N4" s="28" t="s">
+      <c r="N4" s="38" t="s">
         <v>46</v>
       </c>
     </row>
